--- a/отчеты/Лаб4 табл.xlsx
+++ b/отчеты/Лаб4 табл.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiril\Desktop\Параллельные вычисления\parallel-programming\отчеты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFFF4D2-386A-41C1-99DF-52DEBEE30296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E82210-276D-4ADB-ABB0-2ADA0B3A6BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>бабл посл</t>
   </si>
@@ -61,6 +61,18 @@
   </si>
   <si>
     <t>хоар пар 4</t>
+  </si>
+  <si>
+    <t>послед</t>
+  </si>
+  <si>
+    <t>пар 2</t>
+  </si>
+  <si>
+    <t>пар 3</t>
+  </si>
+  <si>
+    <t>пар 4</t>
   </si>
 </sst>
 </file>
@@ -1694,7 +1706,1410 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>послед</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$25:$A$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$25:$B$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.6000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.39700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.52500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.66900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.302</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.603</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.056</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.1949999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.4729999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.8730000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.9630000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.5410000000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.45</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.8079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.7039999999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.2880000000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.4290000000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.2200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.619</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12.023</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12.819000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15.02</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15.845000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16.756</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>18.323</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19.074999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>22.696000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-18B7-41C3-BD1E-3F40B06B3D93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>пар 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$25:$A$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$25:$C$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.20399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.26900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.34799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.434</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.54400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.66700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.98699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0429999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.141</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.0670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0419999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.3290000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.875</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.0649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.6080000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.7269999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.1639999999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.694</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.1180000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.2779999999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.9669999999999996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.5179999999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.915</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.0109999999999992</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.14</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.7720000000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11.846</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-18B7-41C3-BD1E-3F40B06B3D93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$D$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>пар 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$25:$A$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$D$25:$D$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.186</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.185</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.24199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.45600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.64100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.66300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.99299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0369999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4670000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.218</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.3759999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.5680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.776</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.3250000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5019999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.9279999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.1930000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.516</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.2460000000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.8739999999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.181</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.4240000000000004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.109</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.2729999999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.68</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.633</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-18B7-41C3-BD1E-3F40B06B3D93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$E$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>пар 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$25:$A$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$25:$E$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.113</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.7000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.20399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.252</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.98E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.40300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.64800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.56799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.76900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.86899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.96399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.137</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.29</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.4330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.7370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.823</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.9850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.2069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.7919999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.1890000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.9279999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.3570000000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.742</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.6879999999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.1639999999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.2289999999999992</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-18B7-41C3-BD1E-3F40B06B3D93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="496825552"/>
+        <c:axId val="496831312"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="496825552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="496831312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="496831312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="496825552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2250,20 +3665,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>61912</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>223837</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>366712</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>528637</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2283,6 +4201,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{875E514C-5448-0946-3DB0-4B06877EB242}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2554,10 +4508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3010,6 +4964,651 @@
         <v>0.03</v>
       </c>
     </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>100</v>
+      </c>
+      <c r="B25">
+        <f>3*0.001</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C25">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D25">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E25">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>150</v>
+      </c>
+      <c r="B26">
+        <f>12*0.001</f>
+        <v>1.2E-2</v>
+      </c>
+      <c r="C26">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D26">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E26">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>200</v>
+      </c>
+      <c r="B27">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="C27">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D27">
+        <v>0.03</v>
+      </c>
+      <c r="E27">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>250</v>
+      </c>
+      <c r="B28">
+        <v>6.2E-2</v>
+      </c>
+      <c r="C28">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D28">
+        <v>0.186</v>
+      </c>
+      <c r="E28">
+        <v>0.113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>300</v>
+      </c>
+      <c r="B29">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="C29">
+        <v>0.08</v>
+      </c>
+      <c r="D29">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E29">
+        <v>0.11600000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>350</v>
+      </c>
+      <c r="B30">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="C30">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D30">
+        <v>7.8E-2</v>
+      </c>
+      <c r="E30">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>400</v>
+      </c>
+      <c r="B31">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="C31">
+        <v>0.105</v>
+      </c>
+      <c r="D31">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="E31">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>450</v>
+      </c>
+      <c r="B32">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="C32">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="D32">
+        <v>0.105</v>
+      </c>
+      <c r="E32">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>500</v>
+      </c>
+      <c r="B33">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="C33">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="D33">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="E33">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>550</v>
+      </c>
+      <c r="B34">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="C34">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="D34">
+        <v>0.185</v>
+      </c>
+      <c r="E34">
+        <v>0.14899999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>600</v>
+      </c>
+      <c r="B35">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="C35">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="D35">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="E35">
+        <v>0.20399999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>650</v>
+      </c>
+      <c r="B36">
+        <v>0.85</v>
+      </c>
+      <c r="C36">
+        <v>0.434</v>
+      </c>
+      <c r="D36">
+        <v>0.3</v>
+      </c>
+      <c r="E36">
+        <v>0.252</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>700</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="D37">
+        <v>0.38</v>
+      </c>
+      <c r="E37">
+        <v>2.98E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>750</v>
+      </c>
+      <c r="B38">
+        <v>1.302</v>
+      </c>
+      <c r="C38">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="D38">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="E38">
+        <v>0.40300000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>800</v>
+      </c>
+      <c r="B39">
+        <v>1.603</v>
+      </c>
+      <c r="C39">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="D39">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="E39">
+        <v>0.64800000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>850</v>
+      </c>
+      <c r="B40">
+        <v>2.056</v>
+      </c>
+      <c r="C40">
+        <v>1.0429999999999999</v>
+      </c>
+      <c r="D40">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="E40">
+        <v>0.56799999999999995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>900</v>
+      </c>
+      <c r="B41">
+        <v>2.1949999999999998</v>
+      </c>
+      <c r="C41">
+        <v>1.141</v>
+      </c>
+      <c r="D41">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="E41">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>950</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>1.6040000000000001</v>
+      </c>
+      <c r="D42">
+        <v>1.0369999999999999</v>
+      </c>
+      <c r="E42">
+        <v>0.76900000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1000</v>
+      </c>
+      <c r="B43">
+        <v>3.4729999999999999</v>
+      </c>
+      <c r="C43">
+        <v>2.0670000000000002</v>
+      </c>
+      <c r="D43">
+        <v>1.4670000000000001</v>
+      </c>
+      <c r="E43">
+        <v>0.86899999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1050</v>
+      </c>
+      <c r="B44">
+        <v>3.8730000000000002</v>
+      </c>
+      <c r="C44">
+        <v>1.8160000000000001</v>
+      </c>
+      <c r="D44">
+        <v>1.218</v>
+      </c>
+      <c r="E44">
+        <v>0.96399999999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1100</v>
+      </c>
+      <c r="B45">
+        <v>3.9630000000000001</v>
+      </c>
+      <c r="C45">
+        <v>2.0419999999999998</v>
+      </c>
+      <c r="D45">
+        <v>1.3759999999999999</v>
+      </c>
+      <c r="E45">
+        <v>1.137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1150</v>
+      </c>
+      <c r="B46">
+        <v>4.5410000000000004</v>
+      </c>
+      <c r="C46">
+        <v>2.3290000000000002</v>
+      </c>
+      <c r="D46">
+        <v>1.5680000000000001</v>
+      </c>
+      <c r="E46">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1200</v>
+      </c>
+      <c r="B47">
+        <v>5.45</v>
+      </c>
+      <c r="C47">
+        <v>2.875</v>
+      </c>
+      <c r="D47">
+        <v>1.776</v>
+      </c>
+      <c r="E47">
+        <v>1.4330000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1250</v>
+      </c>
+      <c r="B48">
+        <v>5.8079999999999998</v>
+      </c>
+      <c r="C48">
+        <v>3.0649999999999999</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>1.7370000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1300</v>
+      </c>
+      <c r="B49">
+        <v>6.7039999999999997</v>
+      </c>
+      <c r="C49">
+        <v>3.6080000000000001</v>
+      </c>
+      <c r="D49">
+        <v>2.3250000000000002</v>
+      </c>
+      <c r="E49">
+        <v>1.823</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1350</v>
+      </c>
+      <c r="B50">
+        <v>7.2880000000000003</v>
+      </c>
+      <c r="C50">
+        <v>3.7269999999999999</v>
+      </c>
+      <c r="D50">
+        <v>2.5019999999999998</v>
+      </c>
+      <c r="E50">
+        <v>1.9850000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1400</v>
+      </c>
+      <c r="B51">
+        <v>8.4290000000000003</v>
+      </c>
+      <c r="C51">
+        <v>4.1639999999999997</v>
+      </c>
+      <c r="D51">
+        <v>2.9279999999999999</v>
+      </c>
+      <c r="E51">
+        <v>2.2069999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1450</v>
+      </c>
+      <c r="B52">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="C52">
+        <v>4.694</v>
+      </c>
+      <c r="D52">
+        <v>3.1930000000000001</v>
+      </c>
+      <c r="E52">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1500</v>
+      </c>
+      <c r="B53">
+        <v>11.619</v>
+      </c>
+      <c r="C53">
+        <v>5.1180000000000003</v>
+      </c>
+      <c r="D53">
+        <v>3.516</v>
+      </c>
+      <c r="E53">
+        <v>2.7919999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1550</v>
+      </c>
+      <c r="B54">
+        <v>12.023</v>
+      </c>
+      <c r="C54">
+        <v>6.2779999999999996</v>
+      </c>
+      <c r="D54">
+        <v>4.2460000000000004</v>
+      </c>
+      <c r="E54">
+        <v>3.1890000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1600</v>
+      </c>
+      <c r="B55">
+        <v>12.819000000000001</v>
+      </c>
+      <c r="C55">
+        <v>7.9669999999999996</v>
+      </c>
+      <c r="D55">
+        <v>4.8739999999999997</v>
+      </c>
+      <c r="E55">
+        <v>4.9279999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1650</v>
+      </c>
+      <c r="B56">
+        <v>15.02</v>
+      </c>
+      <c r="C56">
+        <v>7.5179999999999998</v>
+      </c>
+      <c r="D56">
+        <v>5.181</v>
+      </c>
+      <c r="E56">
+        <v>4.3570000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1700</v>
+      </c>
+      <c r="B57">
+        <v>15.845000000000001</v>
+      </c>
+      <c r="C57">
+        <v>7.915</v>
+      </c>
+      <c r="D57">
+        <v>5.4240000000000004</v>
+      </c>
+      <c r="E57">
+        <v>4.742</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1750</v>
+      </c>
+      <c r="B58">
+        <v>16.756</v>
+      </c>
+      <c r="C58">
+        <v>9.0109999999999992</v>
+      </c>
+      <c r="D58">
+        <v>6.109</v>
+      </c>
+      <c r="E58">
+        <v>4.6879999999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1800</v>
+      </c>
+      <c r="B59">
+        <v>18.323</v>
+      </c>
+      <c r="C59">
+        <v>9.14</v>
+      </c>
+      <c r="D59">
+        <v>6.2729999999999997</v>
+      </c>
+      <c r="E59">
+        <v>5.1639999999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1850</v>
+      </c>
+      <c r="B60">
+        <v>19.074999999999999</v>
+      </c>
+      <c r="C60">
+        <v>9.7720000000000002</v>
+      </c>
+      <c r="D60">
+        <v>7.68</v>
+      </c>
+      <c r="E60">
+        <v>8.2289999999999992</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1900</v>
+      </c>
+      <c r="B61">
+        <v>22.696000000000002</v>
+      </c>
+      <c r="C61">
+        <v>11.846</v>
+      </c>
+      <c r="D61">
+        <v>7.633</v>
+      </c>
+      <c r="E61">
+        <v>6.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
